--- a/biology/Zoologie/Dexillus_muelleri/Dexillus_muelleri.xlsx
+++ b/biology/Zoologie/Dexillus_muelleri/Dexillus_muelleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dexillus
 Dexillus muelleri, unique représentant du genre Dexillus, est une espèce de poissons plats de la famille des Soleidae.
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre sur les fonds sablonneux des plateaux continentaux[1] en Australie, en Birmanie, au Brunei, au Cambodge, aux Fidji, aux Îles Salomon, en Inde, en Indonésie, en Malaisie, à Niue, aux Palaos, en Papouasie-Nouvelle-Guinée, aux Philippines, aux Samoa américaines, aux Samoa, à Singapour, au Sri Lanka, en Thaïlande, au Timor oriental, aux Tonga, à Vanuatu, au Viêt Nam et à Wallis-et-Futuna[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre sur les fonds sablonneux des plateaux continentaux en Australie, en Birmanie, au Brunei, au Cambodge, aux Fidji, aux Îles Salomon, en Inde, en Indonésie, en Malaisie, à Niue, aux Palaos, en Papouasie-Nouvelle-Guinée, aux Philippines, aux Samoa américaines, aux Samoa, à Singapour, au Sri Lanka, en Thaïlande, au Timor oriental, aux Tonga, à Vanuatu, au Viêt Nam et à Wallis-et-Futuna. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dexillus muelleri peut mesurer jusqu'à 18 cm de longueur totale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dexillus muelleri peut mesurer jusqu'à 18 cm de longueur totale.
 </t>
         </is>
       </c>
@@ -574,17 +590,19 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Dexillus muelleri a été décrite pour la première fois en 1879 par Franz Steindachner sous le protonyme Synaptura muelleri[3].
-Dexillus muelleri a pour synonymes[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Dexillus muelleri a été décrite pour la première fois en 1879 par Franz Steindachner sous le protonyme Synaptura muelleri.
+Dexillus muelleri a pour synonymes :
 Brachirus muelleri (Steindachner, 1879)
 Dexillichthys muelleri (Steindachner, 1879)
 Strandichthys muelleri (Steindachner, 1879)
 Synaptura arafurensis Günther, 1880
 Synaptura muelleri Steindachner, 1879
-Le genre Dexillus a été créé en 1930 par Paul Chabanaud[3].
-Dexillus a pour synonymes[4] :
+Le genre Dexillus a été créé en 1930 par Paul Chabanaud.
+Dexillus a pour synonymes :
 Dexillichthys Whitley, 1931
 Mischominatus Chabanaud, 1938
 Mischommatus Chabanaud, 1938
@@ -616,9 +634,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épithète spécifique, muelleri, a été donnée en l'honneur du botaniste Ferdinand von Mueller (1825-1896) qui a transmis une grande collection de plantes et animaux d'Australie, dont le type de cette espèce, à ce qui est devenu l'actuel musée national d'histoire naturelle de Stuttgart[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique, muelleri, a été donnée en l'honneur du botaniste Ferdinand von Mueller (1825-1896) qui a transmis une grande collection de plantes et animaux d'Australie, dont le type de cette espèce, à ce qui est devenu l'actuel musée national d'histoire naturelle de Stuttgart.
 </t>
         </is>
       </c>
@@ -647,7 +667,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Genre Dexillus :
 Paul Chabanaud, « Les genres de Poissons Hétérosomates [Pisces Heterosomata] appartenant à la sous-famille des Soleinae », Bulletin de l'Institut océanographique de Monaco, no 555,‎ 5 juillet 1930, p. 1-21 (ISSN 0304-5722).
